--- a/data/pca/factorExposure/factorExposure_2014-08-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008639792987743556</v>
+        <v>0.01905926183720131</v>
       </c>
       <c r="C2">
-        <v>-0.1208175265914609</v>
+        <v>-0.06879987457549057</v>
       </c>
       <c r="D2">
-        <v>0.02015126383188507</v>
+        <v>-0.0313193364845035</v>
       </c>
       <c r="E2">
-        <v>-0.2220359399367122</v>
+        <v>-0.01031759113609143</v>
       </c>
       <c r="F2">
-        <v>-0.0421560133062374</v>
+        <v>0.04613832107474397</v>
       </c>
       <c r="G2">
-        <v>0.07040639961743825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1612522552753475</v>
+      </c>
+      <c r="H2">
+        <v>0.02042315997682244</v>
+      </c>
+      <c r="I2">
+        <v>-0.0209708159204121</v>
+      </c>
+      <c r="J2">
+        <v>-0.1210869013147337</v>
+      </c>
+      <c r="K2">
+        <v>-0.04710169365281733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0234703291997206</v>
+        <v>0.01928704770969222</v>
       </c>
       <c r="C4">
-        <v>-0.1693533976436745</v>
+        <v>-0.1426025555879087</v>
       </c>
       <c r="D4">
-        <v>0.03927888284435162</v>
+        <v>-0.0658972470842764</v>
       </c>
       <c r="E4">
-        <v>-0.04395441052028436</v>
+        <v>-0.009016261300418535</v>
       </c>
       <c r="F4">
-        <v>0.05778130690852498</v>
+        <v>-0.03883668245291228</v>
       </c>
       <c r="G4">
-        <v>-0.02520721613546868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06313259005759878</v>
+      </c>
+      <c r="H4">
+        <v>-0.02398280513123526</v>
+      </c>
+      <c r="I4">
+        <v>-0.081833988651381</v>
+      </c>
+      <c r="J4">
+        <v>-0.06485355869595706</v>
+      </c>
+      <c r="K4">
+        <v>0.01931077730957554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02756619208779069</v>
+        <v>0.03972707148509746</v>
       </c>
       <c r="C6">
-        <v>-0.07699245509238323</v>
+        <v>-0.08575159384114177</v>
       </c>
       <c r="D6">
-        <v>0.05814670469800994</v>
+        <v>-0.02834065970159592</v>
       </c>
       <c r="E6">
-        <v>-0.05215187212342606</v>
+        <v>-0.01350902895733195</v>
       </c>
       <c r="F6">
-        <v>-0.009614299719105455</v>
+        <v>0.04496356001726703</v>
       </c>
       <c r="G6">
-        <v>-0.05317617287331859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02514793630132137</v>
+      </c>
+      <c r="H6">
+        <v>-0.05707849165242714</v>
+      </c>
+      <c r="I6">
+        <v>-0.0507174624231406</v>
+      </c>
+      <c r="J6">
+        <v>0.04300307268397101</v>
+      </c>
+      <c r="K6">
+        <v>-0.02341913409116699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01220216613899707</v>
+        <v>0.01921667645706652</v>
       </c>
       <c r="C7">
-        <v>-0.07172602616286582</v>
+        <v>-0.06964264485896791</v>
       </c>
       <c r="D7">
-        <v>0.03865821016113084</v>
+        <v>-0.03283854997459459</v>
       </c>
       <c r="E7">
-        <v>-0.008951980870332395</v>
+        <v>-0.005931333567295268</v>
       </c>
       <c r="F7">
-        <v>0.01910661611255727</v>
+        <v>-0.01673351822735547</v>
       </c>
       <c r="G7">
-        <v>-0.04542592384599872</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.001485961500009437</v>
+      </c>
+      <c r="H7">
+        <v>-0.02993206536482714</v>
+      </c>
+      <c r="I7">
+        <v>-0.07354326452552332</v>
+      </c>
+      <c r="J7">
+        <v>-0.07733345621646204</v>
+      </c>
+      <c r="K7">
+        <v>-0.02821536373073282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.009190206513135922</v>
+        <v>0.001630997830168615</v>
       </c>
       <c r="C8">
-        <v>-0.07233968169445099</v>
+        <v>-0.06049209485816661</v>
       </c>
       <c r="D8">
-        <v>0.03994723506836097</v>
+        <v>-0.04875426865474222</v>
       </c>
       <c r="E8">
-        <v>-0.06504062645931633</v>
+        <v>-0.05208280430515425</v>
       </c>
       <c r="F8">
-        <v>0.0141560876314529</v>
+        <v>0.01697565716932706</v>
       </c>
       <c r="G8">
-        <v>0.01145667694885895</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05110868740995609</v>
+      </c>
+      <c r="H8">
+        <v>0.009991588141776968</v>
+      </c>
+      <c r="I8">
+        <v>-0.05788372974343897</v>
+      </c>
+      <c r="J8">
+        <v>-0.002411349308676521</v>
+      </c>
+      <c r="K8">
+        <v>0.002750239682219151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01409909234576868</v>
+        <v>0.01365968314972482</v>
       </c>
       <c r="C9">
-        <v>-0.120305148153008</v>
+        <v>-0.1000776511014512</v>
       </c>
       <c r="D9">
-        <v>0.05103457485376443</v>
+        <v>-0.04091233628605843</v>
       </c>
       <c r="E9">
-        <v>-0.007955716403780396</v>
+        <v>0.01380327159485435</v>
       </c>
       <c r="F9">
-        <v>-0.00050309286149722</v>
+        <v>-0.01869502303705195</v>
       </c>
       <c r="G9">
-        <v>-0.02437023720387234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04074319447500845</v>
+      </c>
+      <c r="H9">
+        <v>-0.006691024354687614</v>
+      </c>
+      <c r="I9">
+        <v>-0.08302036587555914</v>
+      </c>
+      <c r="J9">
+        <v>-0.07480438566663475</v>
+      </c>
+      <c r="K9">
+        <v>-0.01219774688797447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2611728872003269</v>
+        <v>0.2469493204532311</v>
       </c>
       <c r="C10">
-        <v>0.08621970553196542</v>
+        <v>0.0973948898105166</v>
       </c>
       <c r="D10">
-        <v>-0.0296056012427589</v>
+        <v>0.003530062676843488</v>
       </c>
       <c r="E10">
-        <v>0.03149974639615055</v>
+        <v>-0.05562300470023039</v>
       </c>
       <c r="F10">
-        <v>0.01801797414231983</v>
+        <v>0.02892021860049817</v>
       </c>
       <c r="G10">
-        <v>0.003269829186725196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01619266366135189</v>
+      </c>
+      <c r="H10">
+        <v>-0.03040843931701367</v>
+      </c>
+      <c r="I10">
+        <v>-0.04385535774977858</v>
+      </c>
+      <c r="J10">
+        <v>-0.01292119094473499</v>
+      </c>
+      <c r="K10">
+        <v>0.1357537422432688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.00774113186339515</v>
+        <v>0.0172882382417517</v>
       </c>
       <c r="C11">
-        <v>-0.06717799416528376</v>
+        <v>-0.07793076542564145</v>
       </c>
       <c r="D11">
-        <v>0.02999151742600745</v>
+        <v>-0.03801982518895638</v>
       </c>
       <c r="E11">
-        <v>0.02513245591683333</v>
+        <v>0.009639176801597602</v>
       </c>
       <c r="F11">
-        <v>0.006700140667855896</v>
+        <v>-0.01027297946645387</v>
       </c>
       <c r="G11">
-        <v>-0.03551938931435242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.008091530642902437</v>
+      </c>
+      <c r="H11">
+        <v>-0.007962375324929686</v>
+      </c>
+      <c r="I11">
+        <v>-0.02813327959962118</v>
+      </c>
+      <c r="J11">
+        <v>-0.02157274267488417</v>
+      </c>
+      <c r="K11">
+        <v>-0.02569276021076271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.006054304305480885</v>
+        <v>0.01701483384845075</v>
       </c>
       <c r="C12">
-        <v>-0.04424950859082118</v>
+        <v>-0.05209309214385011</v>
       </c>
       <c r="D12">
-        <v>0.03737006073142284</v>
+        <v>-0.02625086020291675</v>
       </c>
       <c r="E12">
-        <v>0.0145306523708615</v>
+        <v>0.01308709699563663</v>
       </c>
       <c r="F12">
-        <v>-0.02289314109251427</v>
+        <v>0.01347529338525487</v>
       </c>
       <c r="G12">
-        <v>-0.03955682911098638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.004474130068651468</v>
+      </c>
+      <c r="H12">
+        <v>-0.02293517525440012</v>
+      </c>
+      <c r="I12">
+        <v>-0.03123495595321416</v>
+      </c>
+      <c r="J12">
+        <v>-0.01167940987197141</v>
+      </c>
+      <c r="K12">
+        <v>-0.009692886432811718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01255079146840008</v>
+        <v>0.004484081931031412</v>
       </c>
       <c r="C13">
-        <v>-0.1235388093784933</v>
+        <v>-0.1109647987451846</v>
       </c>
       <c r="D13">
-        <v>0.08341523895141939</v>
+        <v>-0.04226379820255288</v>
       </c>
       <c r="E13">
-        <v>-0.0499193090602332</v>
+        <v>-0.01129668781048332</v>
       </c>
       <c r="F13">
-        <v>-0.08237434157757752</v>
+        <v>0.1090984877089436</v>
       </c>
       <c r="G13">
-        <v>-0.110714244526219</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1176559056674267</v>
+      </c>
+      <c r="H13">
+        <v>-0.1192387958571697</v>
+      </c>
+      <c r="I13">
+        <v>-0.0380014773952509</v>
+      </c>
+      <c r="J13">
+        <v>-0.2178430149027493</v>
+      </c>
+      <c r="K13">
+        <v>0.103724737699002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01030461870754361</v>
+        <v>0.02082540652645985</v>
       </c>
       <c r="C14">
-        <v>-0.07462867695752677</v>
+        <v>-0.07316954320738252</v>
       </c>
       <c r="D14">
-        <v>0.04227057602100062</v>
+        <v>-0.047960674947215</v>
       </c>
       <c r="E14">
-        <v>-0.02679658892262929</v>
+        <v>0.0008662761357855453</v>
       </c>
       <c r="F14">
-        <v>-0.04269638831464859</v>
+        <v>0.04349142582017226</v>
       </c>
       <c r="G14">
-        <v>-0.06147458507617183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0007816497170950827</v>
+      </c>
+      <c r="H14">
+        <v>-0.09674253611445144</v>
+      </c>
+      <c r="I14">
+        <v>-0.1613013015127211</v>
+      </c>
+      <c r="J14">
+        <v>-0.1038202893003521</v>
+      </c>
+      <c r="K14">
+        <v>-0.03332225304942958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.009599438766080754</v>
+        <v>0.004419446815970724</v>
       </c>
       <c r="C15">
-        <v>-0.07086825699268355</v>
+        <v>-0.07021212526254406</v>
       </c>
       <c r="D15">
-        <v>0.02922879361714016</v>
+        <v>-0.03039708938244822</v>
       </c>
       <c r="E15">
-        <v>-0.0430713720280826</v>
+        <v>-0.01824962644614541</v>
       </c>
       <c r="F15">
-        <v>0.01790605678133084</v>
+        <v>-0.01117857753835949</v>
       </c>
       <c r="G15">
-        <v>-0.02232765950724839</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02782130959781128</v>
+      </c>
+      <c r="H15">
+        <v>-0.02334671867150381</v>
+      </c>
+      <c r="I15">
+        <v>-0.06956333202837094</v>
+      </c>
+      <c r="J15">
+        <v>-0.03307683436183231</v>
+      </c>
+      <c r="K15">
+        <v>-0.03647981336017118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.009816065256932897</v>
+        <v>0.01659365608877083</v>
       </c>
       <c r="C16">
-        <v>-0.0547990441269909</v>
+        <v>-0.06020471247260533</v>
       </c>
       <c r="D16">
-        <v>0.02708258476689992</v>
+        <v>-0.0269751355500155</v>
       </c>
       <c r="E16">
-        <v>0.01762432700965789</v>
+        <v>0.01358647909237007</v>
       </c>
       <c r="F16">
-        <v>-0.005723728896521879</v>
+        <v>-0.006750471998077245</v>
       </c>
       <c r="G16">
-        <v>-0.01905373548040135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.00283916830777887</v>
+      </c>
+      <c r="H16">
+        <v>-0.007398516691025725</v>
+      </c>
+      <c r="I16">
+        <v>-0.02151600769194244</v>
+      </c>
+      <c r="J16">
+        <v>-0.01218009960124653</v>
+      </c>
+      <c r="K16">
+        <v>-0.01683405756272123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01275726974358266</v>
+        <v>0.01581504705438511</v>
       </c>
       <c r="C20">
-        <v>-0.09263266902101741</v>
+        <v>-0.0836759553667418</v>
       </c>
       <c r="D20">
-        <v>0.04323323391627174</v>
+        <v>-0.02700101795100289</v>
       </c>
       <c r="E20">
-        <v>0.03833767354215178</v>
+        <v>-0.01107829524426202</v>
       </c>
       <c r="F20">
-        <v>-0.01560649392581007</v>
+        <v>-0.0213764835447627</v>
       </c>
       <c r="G20">
-        <v>-0.07743752270826434</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01313592167449668</v>
+      </c>
+      <c r="H20">
+        <v>-0.03642905801941603</v>
+      </c>
+      <c r="I20">
+        <v>-0.07013266731785918</v>
+      </c>
+      <c r="J20">
+        <v>-0.0291991304604952</v>
+      </c>
+      <c r="K20">
+        <v>-0.01338840033152306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002378280328962771</v>
+        <v>0.01413037414620729</v>
       </c>
       <c r="C21">
-        <v>-0.08706848499399768</v>
+        <v>-0.06895882091061213</v>
       </c>
       <c r="D21">
-        <v>-0.01407200209762574</v>
+        <v>-0.0191575075007922</v>
       </c>
       <c r="E21">
-        <v>-0.03919624175817057</v>
+        <v>-0.007915466577939873</v>
       </c>
       <c r="F21">
-        <v>-0.0867190820387319</v>
+        <v>0.09618158654466841</v>
       </c>
       <c r="G21">
-        <v>-0.004863366097497921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01916769009285426</v>
+      </c>
+      <c r="H21">
+        <v>-0.02615651645478322</v>
+      </c>
+      <c r="I21">
+        <v>-0.1019862726826554</v>
+      </c>
+      <c r="J21">
+        <v>-0.1015348566719475</v>
+      </c>
+      <c r="K21">
+        <v>-0.002728540323158397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01698060219605231</v>
+        <v>0.007820994371428955</v>
       </c>
       <c r="C22">
-        <v>-0.23691016056415</v>
+        <v>-0.1728589059595439</v>
       </c>
       <c r="D22">
-        <v>-0.08197906330524367</v>
+        <v>-0.02299280786608869</v>
       </c>
       <c r="E22">
-        <v>-0.316535371257627</v>
+        <v>-0.1653849864337774</v>
       </c>
       <c r="F22">
-        <v>0.3173183259332391</v>
+        <v>-0.09254182085328745</v>
       </c>
       <c r="G22">
-        <v>-0.03982415439143373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.4854511844299246</v>
+      </c>
+      <c r="H22">
+        <v>-0.001150495424021857</v>
+      </c>
+      <c r="I22">
+        <v>0.2872126049508407</v>
+      </c>
+      <c r="J22">
+        <v>0.1646075743972295</v>
+      </c>
+      <c r="K22">
+        <v>-0.02304307421800591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01787308142935772</v>
+        <v>0.01296694066522766</v>
       </c>
       <c r="C23">
-        <v>-0.2407857262305071</v>
+        <v>-0.1761622487896086</v>
       </c>
       <c r="D23">
-        <v>-0.08670567549654987</v>
+        <v>-0.02249706418080395</v>
       </c>
       <c r="E23">
-        <v>-0.3111622334198145</v>
+        <v>-0.1571684317797092</v>
       </c>
       <c r="F23">
-        <v>0.31287019716749</v>
+        <v>-0.08967144362660573</v>
       </c>
       <c r="G23">
-        <v>-0.03798173243883743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.4734160600321235</v>
+      </c>
+      <c r="H23">
+        <v>-0.002098756099316341</v>
+      </c>
+      <c r="I23">
+        <v>0.2678879248395227</v>
+      </c>
+      <c r="J23">
+        <v>0.152105235798028</v>
+      </c>
+      <c r="K23">
+        <v>-0.02731527326814865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.008124476748445771</v>
+        <v>0.01708795460672677</v>
       </c>
       <c r="C24">
-        <v>-0.05848314164696142</v>
+        <v>-0.06309004706739377</v>
       </c>
       <c r="D24">
-        <v>0.0443925638647423</v>
+        <v>-0.04035834769647506</v>
       </c>
       <c r="E24">
-        <v>0.01741274844199767</v>
+        <v>0.01074039086382157</v>
       </c>
       <c r="F24">
-        <v>-0.002089953666985536</v>
+        <v>-0.009462304708470846</v>
       </c>
       <c r="G24">
-        <v>-0.04781083190005822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.002097475584190025</v>
+      </c>
+      <c r="H24">
+        <v>-0.02069895908806394</v>
+      </c>
+      <c r="I24">
+        <v>-0.03518586448079178</v>
+      </c>
+      <c r="J24">
+        <v>-0.02836168756845411</v>
+      </c>
+      <c r="K24">
+        <v>-0.02387341160543286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.008019763643696399</v>
+        <v>0.02125177753236835</v>
       </c>
       <c r="C25">
-        <v>-0.06551732023996505</v>
+        <v>-0.06647159678997247</v>
       </c>
       <c r="D25">
-        <v>0.02254073927028155</v>
+        <v>-0.03264742905323938</v>
       </c>
       <c r="E25">
-        <v>0.0222271911613617</v>
+        <v>0.01405824270044578</v>
       </c>
       <c r="F25">
-        <v>-0.00750588329657258</v>
+        <v>-0.01124792616336693</v>
       </c>
       <c r="G25">
-        <v>-0.04430176499392439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002679195715161702</v>
+      </c>
+      <c r="H25">
+        <v>-0.0128005926211701</v>
+      </c>
+      <c r="I25">
+        <v>-0.03415529766450937</v>
+      </c>
+      <c r="J25">
+        <v>-0.02522213920017342</v>
+      </c>
+      <c r="K25">
+        <v>-0.01169212864570651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.008356428119292332</v>
+        <v>0.02260265673367847</v>
       </c>
       <c r="C26">
-        <v>-0.05049648174066192</v>
+        <v>-0.05479685291073783</v>
       </c>
       <c r="D26">
-        <v>0.07894802129155651</v>
+        <v>-0.06256232088640236</v>
       </c>
       <c r="E26">
-        <v>0.007948868887900305</v>
+        <v>0.01087318448878042</v>
       </c>
       <c r="F26">
-        <v>-0.03909728185974599</v>
+        <v>-0.01375091043924199</v>
       </c>
       <c r="G26">
-        <v>-0.04869189911419244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.005917497622273568</v>
+      </c>
+      <c r="H26">
+        <v>0.00415764980611882</v>
+      </c>
+      <c r="I26">
+        <v>-0.07991201378329786</v>
+      </c>
+      <c r="J26">
+        <v>-0.09530556361257915</v>
+      </c>
+      <c r="K26">
+        <v>-0.0522174899306635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3628581984137869</v>
+        <v>0.3099622423817646</v>
       </c>
       <c r="C28">
-        <v>0.09282665640059157</v>
+        <v>0.1147149280916039</v>
       </c>
       <c r="D28">
-        <v>-0.02297141884129403</v>
+        <v>0.0330376740863234</v>
       </c>
       <c r="E28">
-        <v>0.04638214965806659</v>
+        <v>-0.02015875833410594</v>
       </c>
       <c r="F28">
-        <v>-0.04127393640071277</v>
+        <v>0.01082185496915235</v>
       </c>
       <c r="G28">
-        <v>0.1038821707301283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04660906580866825</v>
+      </c>
+      <c r="H28">
+        <v>0.1102216554770807</v>
+      </c>
+      <c r="I28">
+        <v>-0.04581899156838156</v>
+      </c>
+      <c r="J28">
+        <v>-0.04873148748093624</v>
+      </c>
+      <c r="K28">
+        <v>0.2154121107964076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01032428902562665</v>
+        <v>0.01706481164278227</v>
       </c>
       <c r="C29">
-        <v>-0.08044960323559006</v>
+        <v>-0.08282479975988825</v>
       </c>
       <c r="D29">
-        <v>0.0477048646184563</v>
+        <v>-0.04935602286646112</v>
       </c>
       <c r="E29">
-        <v>-0.004863642839949072</v>
+        <v>0.0206158499856934</v>
       </c>
       <c r="F29">
-        <v>-0.051941233473027</v>
+        <v>0.04025554867161357</v>
       </c>
       <c r="G29">
-        <v>-0.09085273622510814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.002785256511801098</v>
+      </c>
+      <c r="H29">
+        <v>-0.1495138889237785</v>
+      </c>
+      <c r="I29">
+        <v>-0.2234390002877511</v>
+      </c>
+      <c r="J29">
+        <v>-0.1461928031936369</v>
+      </c>
+      <c r="K29">
+        <v>-0.02994872908121677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02824284548033473</v>
+        <v>0.03435255028546499</v>
       </c>
       <c r="C30">
-        <v>-0.1698994331287103</v>
+        <v>-0.1448887188873493</v>
       </c>
       <c r="D30">
-        <v>0.06824870467582532</v>
+        <v>-0.05596618821256683</v>
       </c>
       <c r="E30">
-        <v>-0.03592474128725132</v>
+        <v>-0.03050181729678177</v>
       </c>
       <c r="F30">
-        <v>0.04753809043503157</v>
+        <v>-0.01259281755018887</v>
       </c>
       <c r="G30">
-        <v>-0.03838934286749124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.04718428586694568</v>
+      </c>
+      <c r="H30">
+        <v>-0.01446626074619864</v>
+      </c>
+      <c r="I30">
+        <v>-0.04337160440994611</v>
+      </c>
+      <c r="J30">
+        <v>0.00100660070445349</v>
+      </c>
+      <c r="K30">
+        <v>-0.04234696671358162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00278001480744102</v>
+        <v>0.01498792428040443</v>
       </c>
       <c r="C31">
-        <v>-0.04741309995099639</v>
+        <v>-0.07591838718702221</v>
       </c>
       <c r="D31">
-        <v>0.03224203035698221</v>
+        <v>-0.04129354015283809</v>
       </c>
       <c r="E31">
-        <v>0.01223237379640762</v>
+        <v>-0.00146732488160247</v>
       </c>
       <c r="F31">
-        <v>-0.0080936015923648</v>
+        <v>-0.001850806674063786</v>
       </c>
       <c r="G31">
-        <v>-0.002879266013406561</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.006115194093997772</v>
+      </c>
+      <c r="H31">
+        <v>0.02255879088725702</v>
+      </c>
+      <c r="I31">
+        <v>-0.03631262020744997</v>
+      </c>
+      <c r="J31">
+        <v>-0.0201242846907994</v>
+      </c>
+      <c r="K31">
+        <v>-0.007647441030103386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01726918879706213</v>
+        <v>0.02234207971785431</v>
       </c>
       <c r="C32">
-        <v>-0.07317976216444039</v>
+        <v>-0.05292185301067227</v>
       </c>
       <c r="D32">
-        <v>0.003596913212789234</v>
+        <v>-0.02531103360812861</v>
       </c>
       <c r="E32">
-        <v>-0.1478433267987267</v>
+        <v>0.004135792392756094</v>
       </c>
       <c r="F32">
-        <v>-0.01569984640300216</v>
+        <v>0.05323843348415217</v>
       </c>
       <c r="G32">
-        <v>-0.0898106580726838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.1029769589883341</v>
+      </c>
+      <c r="H32">
+        <v>-0.08010397658778567</v>
+      </c>
+      <c r="I32">
+        <v>-0.111868063855445</v>
+      </c>
+      <c r="J32">
+        <v>-0.1438447638148589</v>
+      </c>
+      <c r="K32">
+        <v>0.2450714345416482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01384696117869981</v>
+        <v>0.01738457019479305</v>
       </c>
       <c r="C33">
-        <v>-0.0916542045108817</v>
+        <v>-0.1019688995803406</v>
       </c>
       <c r="D33">
-        <v>0.06510280094788272</v>
+        <v>-0.05244038441857396</v>
       </c>
       <c r="E33">
-        <v>-0.009771211217823506</v>
+        <v>-0.0111974052164915</v>
       </c>
       <c r="F33">
-        <v>-0.01411442282347703</v>
+        <v>-0.009296283083023471</v>
       </c>
       <c r="G33">
-        <v>-0.03914346611598968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01868597385401832</v>
+      </c>
+      <c r="H33">
+        <v>-0.02917178758928406</v>
+      </c>
+      <c r="I33">
+        <v>-0.04585696020299566</v>
+      </c>
+      <c r="J33">
+        <v>-0.04401452937733269</v>
+      </c>
+      <c r="K33">
+        <v>0.01735480887010804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005336277819413098</v>
+        <v>0.01763975658182451</v>
       </c>
       <c r="C34">
-        <v>-0.05190642963216095</v>
+        <v>-0.04891590682662572</v>
       </c>
       <c r="D34">
-        <v>0.0229832248061156</v>
+        <v>-0.02096245694741134</v>
       </c>
       <c r="E34">
-        <v>0.007723765284109571</v>
+        <v>0.01434032358085172</v>
       </c>
       <c r="F34">
-        <v>-0.02332426281824609</v>
+        <v>-0.001124319329846323</v>
       </c>
       <c r="G34">
-        <v>-0.02744473603005729</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.005214618495435963</v>
+      </c>
+      <c r="H34">
+        <v>-0.02046631932295401</v>
+      </c>
+      <c r="I34">
+        <v>-0.02422380518837187</v>
+      </c>
+      <c r="J34">
+        <v>0.01582334172986157</v>
+      </c>
+      <c r="K34">
+        <v>-0.01186027712012388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003659414905334672</v>
+        <v>0.01042048786903234</v>
       </c>
       <c r="C35">
-        <v>-0.02951133630709194</v>
+        <v>-0.04559191504228685</v>
       </c>
       <c r="D35">
-        <v>0.008552421475877835</v>
+        <v>-0.02209777825960458</v>
       </c>
       <c r="E35">
-        <v>-0.003188050742535883</v>
+        <v>-0.003572445131143209</v>
       </c>
       <c r="F35">
-        <v>-0.01594475062594462</v>
+        <v>0.01021575956769631</v>
       </c>
       <c r="G35">
-        <v>-0.03516835741539527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.007863928842190162</v>
+      </c>
+      <c r="H35">
+        <v>-0.06347858594638943</v>
+      </c>
+      <c r="I35">
+        <v>-0.1341062583852395</v>
+      </c>
+      <c r="J35">
+        <v>-0.0645621018932984</v>
+      </c>
+      <c r="K35">
+        <v>0.001401946524006127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01045965666324918</v>
+        <v>0.01390463763469337</v>
       </c>
       <c r="C36">
-        <v>-0.0540364433777759</v>
+        <v>-0.04585922633782531</v>
       </c>
       <c r="D36">
-        <v>0.05888932287114459</v>
+        <v>-0.04433327552291499</v>
       </c>
       <c r="E36">
-        <v>0.00845570635470552</v>
+        <v>-0.008518590113915616</v>
       </c>
       <c r="F36">
-        <v>-0.0182450859563844</v>
+        <v>-0.004465469736147343</v>
       </c>
       <c r="G36">
-        <v>-0.03016108907975848</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01317179748570851</v>
+      </c>
+      <c r="H36">
+        <v>0.002453830259194193</v>
+      </c>
+      <c r="I36">
+        <v>-0.06142189947543075</v>
+      </c>
+      <c r="J36">
+        <v>-0.07068290802706029</v>
+      </c>
+      <c r="K36">
+        <v>-0.01515407987747181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03440166421026123</v>
+        <v>0.01020023535383157</v>
       </c>
       <c r="C38">
-        <v>-0.05058218208704432</v>
+        <v>-0.05828996303567369</v>
       </c>
       <c r="D38">
-        <v>0.04501491334585652</v>
+        <v>-0.03741644699500192</v>
       </c>
       <c r="E38">
-        <v>0.01526415578669651</v>
+        <v>-0.04541148610153677</v>
       </c>
       <c r="F38">
-        <v>-0.02414856666489121</v>
+        <v>-0.0206369709520363</v>
       </c>
       <c r="G38">
-        <v>-0.04249013301172741</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.001719383102389677</v>
+      </c>
+      <c r="H38">
+        <v>-0.02257063003145272</v>
+      </c>
+      <c r="I38">
+        <v>-0.05524860103345134</v>
+      </c>
+      <c r="J38">
+        <v>-0.04884229825698507</v>
+      </c>
+      <c r="K38">
+        <v>0.06685846517129115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.006679240213056665</v>
+        <v>0.02485286906483932</v>
       </c>
       <c r="C39">
-        <v>-0.128431191669328</v>
+        <v>-0.1313430314882555</v>
       </c>
       <c r="D39">
-        <v>0.06068715194968789</v>
+        <v>-0.0596873727068041</v>
       </c>
       <c r="E39">
-        <v>0.01530942836436607</v>
+        <v>-0.007622487004017553</v>
       </c>
       <c r="F39">
-        <v>-0.02411221612942797</v>
+        <v>0.01320855447005582</v>
       </c>
       <c r="G39">
-        <v>-0.06223462190620069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01785773998602071</v>
+      </c>
+      <c r="H39">
+        <v>-0.04145262180443849</v>
+      </c>
+      <c r="I39">
+        <v>-0.04558681415109339</v>
+      </c>
+      <c r="J39">
+        <v>0.001332166402391398</v>
+      </c>
+      <c r="K39">
+        <v>-0.08885056030883985</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.009148330261419507</v>
+        <v>0.01469731274228781</v>
       </c>
       <c r="C40">
-        <v>-0.03950917833463621</v>
+        <v>-0.05901596066236712</v>
       </c>
       <c r="D40">
-        <v>0.0370951304935199</v>
+        <v>-0.04485031887573974</v>
       </c>
       <c r="E40">
-        <v>-0.1067042117359191</v>
+        <v>-0.003228379874450435</v>
       </c>
       <c r="F40">
-        <v>0.05524769081058323</v>
+        <v>0.02607936249857954</v>
       </c>
       <c r="G40">
-        <v>-0.1135565888678037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02242245375509718</v>
+      </c>
+      <c r="H40">
+        <v>-0.1497739597380853</v>
+      </c>
+      <c r="I40">
+        <v>-0.01902235793647089</v>
+      </c>
+      <c r="J40">
+        <v>-0.02417057334731892</v>
+      </c>
+      <c r="K40">
+        <v>-0.06116054058657907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01175206338705277</v>
+        <v>0.02211947384854693</v>
       </c>
       <c r="C41">
-        <v>-0.02114205807661286</v>
+        <v>-0.04730389985189366</v>
       </c>
       <c r="D41">
-        <v>0.002922040495444991</v>
+        <v>-0.01459847341134916</v>
       </c>
       <c r="E41">
-        <v>-0.002451236224088123</v>
+        <v>0.00647127442397475</v>
       </c>
       <c r="F41">
-        <v>-0.005024368077807727</v>
+        <v>0.001081508828551035</v>
       </c>
       <c r="G41">
-        <v>0.04576745751608332</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.0152833438085459</v>
+      </c>
+      <c r="H41">
+        <v>0.005620057543340664</v>
+      </c>
+      <c r="I41">
+        <v>-0.01510498198603106</v>
+      </c>
+      <c r="J41">
+        <v>-0.02592867775997845</v>
+      </c>
+      <c r="K41">
+        <v>0.02701266205475199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.00671142137168629</v>
+        <v>0.01929322314473137</v>
       </c>
       <c r="C43">
-        <v>-0.02403785224837207</v>
+        <v>-0.0449059749293244</v>
       </c>
       <c r="D43">
-        <v>0.02290575244595376</v>
+        <v>-0.02928083907118773</v>
       </c>
       <c r="E43">
-        <v>0.003576689070180957</v>
+        <v>-0.003057424008824946</v>
       </c>
       <c r="F43">
-        <v>4.714983165480567e-05</v>
+        <v>-0.009568326111767951</v>
       </c>
       <c r="G43">
-        <v>0.007290804469956509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01039519181364456</v>
+      </c>
+      <c r="H43">
+        <v>-0.004532217878044281</v>
+      </c>
+      <c r="I43">
+        <v>-0.02643090396044099</v>
+      </c>
+      <c r="J43">
+        <v>-0.0289484054344711</v>
+      </c>
+      <c r="K43">
+        <v>-0.001809121586590312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02353698616211538</v>
+        <v>0.0170975304407548</v>
       </c>
       <c r="C44">
-        <v>-0.1000286840664677</v>
+        <v>-0.09853879030092844</v>
       </c>
       <c r="D44">
-        <v>0.03397282533812626</v>
+        <v>-0.05790473742876856</v>
       </c>
       <c r="E44">
-        <v>-0.01823137601523971</v>
+        <v>-0.04687048823121598</v>
       </c>
       <c r="F44">
-        <v>0.01169320521746517</v>
+        <v>-0.02388320067473867</v>
       </c>
       <c r="G44">
-        <v>-0.07389883787661457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.05000751148334075</v>
+      </c>
+      <c r="H44">
+        <v>-0.05117424220783668</v>
+      </c>
+      <c r="I44">
+        <v>-0.02475813737734594</v>
+      </c>
+      <c r="J44">
+        <v>-0.0392552587690861</v>
+      </c>
+      <c r="K44">
+        <v>-0.05201396150258505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.003229549819194654</v>
+        <v>0.005080997752331693</v>
       </c>
       <c r="C46">
-        <v>-0.06099857891553364</v>
+        <v>-0.06482998416213775</v>
       </c>
       <c r="D46">
-        <v>0.04692171268362483</v>
+        <v>-0.02907999070230189</v>
       </c>
       <c r="E46">
-        <v>-0.009377840465913374</v>
+        <v>-0.001405043944734171</v>
       </c>
       <c r="F46">
-        <v>-0.02434857147617161</v>
+        <v>0.008038967531908371</v>
       </c>
       <c r="G46">
-        <v>-0.03125486281488819</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.006825406855343384</v>
+      </c>
+      <c r="H46">
+        <v>-0.03760868576866592</v>
+      </c>
+      <c r="I46">
+        <v>-0.06261146543132438</v>
+      </c>
+      <c r="J46">
+        <v>-0.07443489272825411</v>
+      </c>
+      <c r="K46">
+        <v>-0.01847677275956665</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.006872475617032295</v>
+        <v>0.02238599422835016</v>
       </c>
       <c r="C47">
-        <v>-0.05596151653236538</v>
+        <v>-0.07276928440681547</v>
       </c>
       <c r="D47">
-        <v>0.0573663102243297</v>
+        <v>-0.04381811146529266</v>
       </c>
       <c r="E47">
-        <v>0.02106687682548626</v>
+        <v>0.01461894158861825</v>
       </c>
       <c r="F47">
-        <v>-0.05290273953267527</v>
+        <v>-0.001442073889915447</v>
       </c>
       <c r="G47">
-        <v>-0.007311307509491366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01011367686468916</v>
+      </c>
+      <c r="H47">
+        <v>-0.007751091218426985</v>
+      </c>
+      <c r="I47">
+        <v>-0.05397378369794171</v>
+      </c>
+      <c r="J47">
+        <v>-0.05314269095616812</v>
+      </c>
+      <c r="K47">
+        <v>0.01772688242477233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006768956744974715</v>
+        <v>0.01647334580271231</v>
       </c>
       <c r="C48">
-        <v>-0.05632563754842953</v>
+        <v>-0.0455434311953552</v>
       </c>
       <c r="D48">
-        <v>0.06625170218265763</v>
+        <v>-0.053424842125878</v>
       </c>
       <c r="E48">
-        <v>0.01340314702433871</v>
+        <v>0.009324036045229364</v>
       </c>
       <c r="F48">
-        <v>-0.00347053590320635</v>
+        <v>-0.01942917050816554</v>
       </c>
       <c r="G48">
-        <v>-0.03780686797241151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02079495457708505</v>
+      </c>
+      <c r="H48">
+        <v>0.004270572512950526</v>
+      </c>
+      <c r="I48">
+        <v>-0.08750531366136022</v>
+      </c>
+      <c r="J48">
+        <v>-0.09437037952653754</v>
+      </c>
+      <c r="K48">
+        <v>-0.03247747564382271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02109412760637302</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05012654414972896</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.008257967587017793</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02843591857083054</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.005709818734956786</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.07536833756330222</v>
+      </c>
+      <c r="H49">
+        <v>-0.05686469133079398</v>
+      </c>
+      <c r="I49">
+        <v>-0.0004908627744142231</v>
+      </c>
+      <c r="J49">
+        <v>0.1141201512483839</v>
+      </c>
+      <c r="K49">
+        <v>-0.04798314665527812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.001564892570700882</v>
+        <v>0.01576617159151805</v>
       </c>
       <c r="C50">
-        <v>-0.05923902139424327</v>
+        <v>-0.07554300471940603</v>
       </c>
       <c r="D50">
-        <v>0.02692573786920139</v>
+        <v>-0.03279452260651013</v>
       </c>
       <c r="E50">
-        <v>-0.002050975520330236</v>
+        <v>0.001263979811260332</v>
       </c>
       <c r="F50">
-        <v>0.007300153704828695</v>
+        <v>-0.01397269005057565</v>
       </c>
       <c r="G50">
-        <v>-0.01900917130098736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0156476714127716</v>
+      </c>
+      <c r="H50">
+        <v>0.002872315595214697</v>
+      </c>
+      <c r="I50">
+        <v>-0.06412606133451594</v>
+      </c>
+      <c r="J50">
+        <v>-0.02723261182360453</v>
+      </c>
+      <c r="K50">
+        <v>0.05277575693191972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.008956539233277123</v>
+        <v>-0.003923063456273759</v>
       </c>
       <c r="C51">
-        <v>-0.07444482714642782</v>
+        <v>-0.0357329590361465</v>
       </c>
       <c r="D51">
-        <v>0.04493785704825765</v>
+        <v>-0.02680234224435254</v>
       </c>
       <c r="E51">
-        <v>-0.02613485071582489</v>
+        <v>-0.02832657628088292</v>
       </c>
       <c r="F51">
-        <v>-0.002838551822549152</v>
+        <v>0.01445705956110369</v>
       </c>
       <c r="G51">
-        <v>0.005826110491253199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01728430204066863</v>
+      </c>
+      <c r="H51">
+        <v>-0.02373664639874941</v>
+      </c>
+      <c r="I51">
+        <v>-0.05902467616348887</v>
+      </c>
+      <c r="J51">
+        <v>-0.09233839622509923</v>
+      </c>
+      <c r="K51">
+        <v>-0.03352117141830258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0311987577271778</v>
+        <v>0.0610633703840802</v>
       </c>
       <c r="C53">
-        <v>-0.1137130091951453</v>
+        <v>-0.1308276046993282</v>
       </c>
       <c r="D53">
-        <v>0.06410884339157499</v>
+        <v>-0.05694447053836475</v>
       </c>
       <c r="E53">
-        <v>0.1190376112881762</v>
+        <v>0.04219154097888148</v>
       </c>
       <c r="F53">
-        <v>-0.02356595487345981</v>
+        <v>0.01317270061122801</v>
       </c>
       <c r="G53">
-        <v>0.1070212350451842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05033987801523011</v>
+      </c>
+      <c r="H53">
+        <v>0.09115228479133711</v>
+      </c>
+      <c r="I53">
+        <v>0.01725183926732441</v>
+      </c>
+      <c r="J53">
+        <v>0.003505550762139286</v>
+      </c>
+      <c r="K53">
+        <v>0.02298023228941271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.004122527857035714</v>
+        <v>0.01631420200677585</v>
       </c>
       <c r="C54">
-        <v>-0.07090356539923667</v>
+        <v>-0.07144717362231823</v>
       </c>
       <c r="D54">
-        <v>0.01314241578153147</v>
+        <v>-0.01240028759451248</v>
       </c>
       <c r="E54">
-        <v>0.0245480688004891</v>
+        <v>0.01360767109992792</v>
       </c>
       <c r="F54">
-        <v>-0.003906984267765529</v>
+        <v>-0.005362509386078469</v>
       </c>
       <c r="G54">
-        <v>-0.02283533206183653</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.001494774658380225</v>
+      </c>
+      <c r="H54">
+        <v>-0.01646740709010535</v>
+      </c>
+      <c r="I54">
+        <v>-0.04322361414007856</v>
+      </c>
+      <c r="J54">
+        <v>-0.04365192685139515</v>
+      </c>
+      <c r="K54">
+        <v>-0.02589863159420391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01223266911674864</v>
+        <v>0.03101352842429579</v>
       </c>
       <c r="C55">
-        <v>-0.07351678756270326</v>
+        <v>-0.08246254078454196</v>
       </c>
       <c r="D55">
-        <v>0.05962006354676664</v>
+        <v>-0.05326135185786655</v>
       </c>
       <c r="E55">
-        <v>0.0586033704315989</v>
+        <v>0.03613654239422708</v>
       </c>
       <c r="F55">
-        <v>-0.02257143483221691</v>
+        <v>-0.0008764413659097663</v>
       </c>
       <c r="G55">
-        <v>0.03608676530594665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0325290725570769</v>
+      </c>
+      <c r="H55">
+        <v>0.03987514517400088</v>
+      </c>
+      <c r="I55">
+        <v>0.008486309495516748</v>
+      </c>
+      <c r="J55">
+        <v>-0.008453142264701022</v>
+      </c>
+      <c r="K55">
+        <v>-0.007141164703464985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01419215281250805</v>
+        <v>0.04932653602027308</v>
       </c>
       <c r="C56">
-        <v>-0.1451170659548865</v>
+        <v>-0.1532437245140589</v>
       </c>
       <c r="D56">
-        <v>0.06394029243208803</v>
+        <v>-0.08026147107431389</v>
       </c>
       <c r="E56">
-        <v>0.08975424392837077</v>
+        <v>0.08765678171147173</v>
       </c>
       <c r="F56">
-        <v>-0.04248716083932981</v>
+        <v>0.03797781061450455</v>
       </c>
       <c r="G56">
-        <v>0.1454325276662304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0685494677956244</v>
+      </c>
+      <c r="H56">
+        <v>0.1623577835005182</v>
+      </c>
+      <c r="I56">
+        <v>0.01453908310312612</v>
+      </c>
+      <c r="J56">
+        <v>0.0285797045411409</v>
+      </c>
+      <c r="K56">
+        <v>0.007798637512061403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0332816581804286</v>
+        <v>0.01910550548416624</v>
       </c>
       <c r="C58">
-        <v>-0.2867357782219753</v>
+        <v>-0.1742967719513445</v>
       </c>
       <c r="D58">
-        <v>-0.02289702142996438</v>
+        <v>-0.0445805030712406</v>
       </c>
       <c r="E58">
-        <v>-0.1614837322123149</v>
+        <v>-0.218615538997759</v>
       </c>
       <c r="F58">
-        <v>0.2330224193671618</v>
+        <v>-0.01482416323276851</v>
       </c>
       <c r="G58">
-        <v>-0.02516069671632943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2952780516425526</v>
+      </c>
+      <c r="H58">
+        <v>0.06215784907438193</v>
+      </c>
+      <c r="I58">
+        <v>-0.0004066296090045721</v>
+      </c>
+      <c r="J58">
+        <v>-0.1528208312131882</v>
+      </c>
+      <c r="K58">
+        <v>0.08565123260648823</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2876696692011342</v>
+        <v>0.2881764831889737</v>
       </c>
       <c r="C59">
-        <v>0.004083334489825182</v>
+        <v>0.05217450737759095</v>
       </c>
       <c r="D59">
-        <v>-0.01018714324380039</v>
+        <v>0.006437693549775876</v>
       </c>
       <c r="E59">
-        <v>-0.06246847816176839</v>
+        <v>-0.01859937604955322</v>
       </c>
       <c r="F59">
-        <v>-0.04079352742878115</v>
+        <v>0.01856674695567464</v>
       </c>
       <c r="G59">
-        <v>0.002854133083270515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0531165162529209</v>
+      </c>
+      <c r="H59">
+        <v>0.003930266918200464</v>
+      </c>
+      <c r="I59">
+        <v>0.01910198123355274</v>
+      </c>
+      <c r="J59">
+        <v>0.001337221746610355</v>
+      </c>
+      <c r="K59">
+        <v>0.02781815344602338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1090611802161549</v>
+        <v>0.1526631471852013</v>
       </c>
       <c r="C60">
-        <v>-0.1491635250333888</v>
+        <v>-0.1599992217052618</v>
       </c>
       <c r="D60">
-        <v>0.09258529418875462</v>
+        <v>-0.04006991508067795</v>
       </c>
       <c r="E60">
-        <v>0.123494690463629</v>
+        <v>0.1621536642966721</v>
       </c>
       <c r="F60">
-        <v>-0.2282374117749033</v>
+        <v>0.003316101219240134</v>
       </c>
       <c r="G60">
-        <v>-0.2153302468102839</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09241364990863246</v>
+      </c>
+      <c r="H60">
+        <v>-0.2293724476099878</v>
+      </c>
+      <c r="I60">
+        <v>0.2176954698733072</v>
+      </c>
+      <c r="J60">
+        <v>0.1036842816506868</v>
+      </c>
+      <c r="K60">
+        <v>-0.01907682525932438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006783695306915217</v>
+        <v>0.02507846876953466</v>
       </c>
       <c r="C61">
-        <v>-0.08297673349276793</v>
+        <v>-0.09844524949259</v>
       </c>
       <c r="D61">
-        <v>0.06845299148374095</v>
+        <v>-0.05409293198651926</v>
       </c>
       <c r="E61">
-        <v>0.02968090264559856</v>
+        <v>0.01661908942308181</v>
       </c>
       <c r="F61">
-        <v>-0.04065540297803313</v>
+        <v>0.001533093359011511</v>
       </c>
       <c r="G61">
-        <v>-0.06698474405149574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02513704525472853</v>
+      </c>
+      <c r="H61">
+        <v>-0.02748708754222867</v>
+      </c>
+      <c r="I61">
+        <v>-0.06086877119383641</v>
+      </c>
+      <c r="J61">
+        <v>-0.002920412471767937</v>
+      </c>
+      <c r="K61">
+        <v>-0.03404526560933829</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002857674893134116</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01491661086015775</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.00315044053528339</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01656269149021507</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.02239198561992734</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02508235841451651</v>
+      </c>
+      <c r="H62">
+        <v>-0.01919433338349514</v>
+      </c>
+      <c r="I62">
+        <v>-0.02074116801876614</v>
+      </c>
+      <c r="J62">
+        <v>0.001422103786711789</v>
+      </c>
+      <c r="K62">
+        <v>0.007182860233731739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0010780431660472</v>
+        <v>0.02711622659911982</v>
       </c>
       <c r="C63">
-        <v>-0.05898556901518291</v>
+        <v>-0.06349231652090716</v>
       </c>
       <c r="D63">
-        <v>0.03858994331865857</v>
+        <v>-0.05896500577605039</v>
       </c>
       <c r="E63">
-        <v>0.02041057627272258</v>
+        <v>0.01514399629338832</v>
       </c>
       <c r="F63">
-        <v>-0.002322603411009734</v>
+        <v>-0.0004801003164184578</v>
       </c>
       <c r="G63">
-        <v>0.003739168439319601</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005264550806924951</v>
+      </c>
+      <c r="H63">
+        <v>-0.0009592604292347181</v>
+      </c>
+      <c r="I63">
+        <v>-0.06545628597543642</v>
+      </c>
+      <c r="J63">
+        <v>-0.02691073538218195</v>
+      </c>
+      <c r="K63">
+        <v>-0.01434143476150226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.000981645945976073</v>
+        <v>0.01802400893234228</v>
       </c>
       <c r="C64">
-        <v>-0.08537371938318326</v>
+        <v>-0.09173006135116711</v>
       </c>
       <c r="D64">
-        <v>0.06863266785847372</v>
+        <v>-0.03494003524548538</v>
       </c>
       <c r="E64">
-        <v>0.01139143667333458</v>
+        <v>0.01504041525149988</v>
       </c>
       <c r="F64">
-        <v>0.002839586413738671</v>
+        <v>-0.04176152633159289</v>
       </c>
       <c r="G64">
-        <v>-0.04724624955261111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03657684196451156</v>
+      </c>
+      <c r="H64">
+        <v>-0.06126406312992116</v>
+      </c>
+      <c r="I64">
+        <v>-0.04525194590400469</v>
+      </c>
+      <c r="J64">
+        <v>-0.0202629858652583</v>
+      </c>
+      <c r="K64">
+        <v>-0.08243182616845557</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.009075674112578105</v>
+        <v>0.03317810171340365</v>
       </c>
       <c r="C65">
-        <v>-0.0900310770762099</v>
+        <v>-0.09282205248351386</v>
       </c>
       <c r="D65">
-        <v>0.03829959892144404</v>
+        <v>-0.02296937380147607</v>
       </c>
       <c r="E65">
-        <v>-0.01409310103700005</v>
+        <v>-0.0005675724737473278</v>
       </c>
       <c r="F65">
-        <v>-0.02581773835241934</v>
+        <v>-0.01584903657915447</v>
       </c>
       <c r="G65">
-        <v>-0.07625657228892359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.002592262804611361</v>
+      </c>
+      <c r="H65">
+        <v>-0.08936802224724945</v>
+      </c>
+      <c r="I65">
+        <v>0.006131856946508341</v>
+      </c>
+      <c r="J65">
+        <v>0.01038818567366002</v>
+      </c>
+      <c r="K65">
+        <v>-0.05171261793640338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.005069299437822269</v>
+        <v>0.0222544065902061</v>
       </c>
       <c r="C66">
-        <v>-0.1712765488621355</v>
+        <v>-0.1705082201961643</v>
       </c>
       <c r="D66">
-        <v>0.05094376122216197</v>
+        <v>-0.05115884546344333</v>
       </c>
       <c r="E66">
-        <v>-0.0225336196272375</v>
+        <v>-0.002342368663426095</v>
       </c>
       <c r="F66">
-        <v>-0.0375580170004703</v>
+        <v>0.01481357198474488</v>
       </c>
       <c r="G66">
-        <v>-0.08692888363372385</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.003002266331582405</v>
+      </c>
+      <c r="H66">
+        <v>-0.03346613405961223</v>
+      </c>
+      <c r="I66">
+        <v>-0.06770068300716317</v>
+      </c>
+      <c r="J66">
+        <v>0.006417613622444696</v>
+      </c>
+      <c r="K66">
+        <v>-0.06392935870569227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03387262778648254</v>
+        <v>0.01974513025248868</v>
       </c>
       <c r="C67">
-        <v>-0.0277912076556435</v>
+        <v>-0.05084630033094101</v>
       </c>
       <c r="D67">
-        <v>0.06230701990391044</v>
+        <v>-0.03876770345568753</v>
       </c>
       <c r="E67">
-        <v>0.0477740494717441</v>
+        <v>-0.02686898227134344</v>
       </c>
       <c r="F67">
-        <v>-0.04060594580206466</v>
+        <v>-0.0163659934540121</v>
       </c>
       <c r="G67">
-        <v>-0.04840579243161361</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02923331923524521</v>
+      </c>
+      <c r="H67">
+        <v>-0.04293351058429147</v>
+      </c>
+      <c r="I67">
+        <v>-0.01993372999186781</v>
+      </c>
+      <c r="J67">
+        <v>-0.05439022671239956</v>
+      </c>
+      <c r="K67">
+        <v>0.04788050962302574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2953800533739976</v>
+        <v>0.292937202660077</v>
       </c>
       <c r="C68">
-        <v>0.02677916842092601</v>
+        <v>0.0778233839881249</v>
       </c>
       <c r="D68">
-        <v>0.002616083420794978</v>
+        <v>0.02606254258287903</v>
       </c>
       <c r="E68">
-        <v>-0.02122630883919125</v>
+        <v>0.009353180883549379</v>
       </c>
       <c r="F68">
-        <v>-0.003633113451728068</v>
+        <v>-0.004195170467239819</v>
       </c>
       <c r="G68">
-        <v>-0.008198668015262107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04612518221555054</v>
+      </c>
+      <c r="H68">
+        <v>0.02276117953495614</v>
+      </c>
+      <c r="I68">
+        <v>-0.0283845550493374</v>
+      </c>
+      <c r="J68">
+        <v>-0.02106852388749585</v>
+      </c>
+      <c r="K68">
+        <v>0.04645584991646345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01082696197894381</v>
+        <v>0.01060597103626865</v>
       </c>
       <c r="C69">
-        <v>-0.05362603406550826</v>
+        <v>-0.04602631025212324</v>
       </c>
       <c r="D69">
-        <v>0.05770594581546645</v>
+        <v>-0.02508368016848449</v>
       </c>
       <c r="E69">
-        <v>0.0328189609182957</v>
+        <v>-0.001681138312329011</v>
       </c>
       <c r="F69">
-        <v>-0.008538357392933212</v>
+        <v>0.009940794271455691</v>
       </c>
       <c r="G69">
-        <v>-0.01825454020179908</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01378547497593933</v>
+      </c>
+      <c r="H69">
+        <v>-0.01769352916315147</v>
+      </c>
+      <c r="I69">
+        <v>-0.01015961474688304</v>
+      </c>
+      <c r="J69">
+        <v>-0.03652844428005428</v>
+      </c>
+      <c r="K69">
+        <v>0.02733442844231304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2866011952182257</v>
+        <v>0.2742231605645163</v>
       </c>
       <c r="C71">
-        <v>0.0442750006168092</v>
+        <v>0.0809753406426125</v>
       </c>
       <c r="D71">
-        <v>-0.01349277263599223</v>
+        <v>0.02235808942317066</v>
       </c>
       <c r="E71">
-        <v>-0.02426443643493267</v>
+        <v>-0.03016373440539058</v>
       </c>
       <c r="F71">
-        <v>0.01703305573014796</v>
+        <v>-0.01373652043953375</v>
       </c>
       <c r="G71">
-        <v>-0.00382365822205911</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.06189927489715526</v>
+      </c>
+      <c r="H71">
+        <v>0.01899877200767595</v>
+      </c>
+      <c r="I71">
+        <v>-0.03591885509387316</v>
+      </c>
+      <c r="J71">
+        <v>-0.04975198030194629</v>
+      </c>
+      <c r="K71">
+        <v>0.1088943474348532</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01184252277826364</v>
+        <v>0.05336564606389199</v>
       </c>
       <c r="C72">
-        <v>-0.1483981755819058</v>
+        <v>-0.1381361632915849</v>
       </c>
       <c r="D72">
-        <v>0.07447535751487717</v>
+        <v>-0.05017544007616056</v>
       </c>
       <c r="E72">
-        <v>0.01080047169166287</v>
+        <v>0.06381194658754713</v>
       </c>
       <c r="F72">
-        <v>0.03101764785909006</v>
+        <v>-0.002875629338806764</v>
       </c>
       <c r="G72">
-        <v>-0.09603940469830655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01244608875730537</v>
+      </c>
+      <c r="H72">
+        <v>0.009376300877411084</v>
+      </c>
+      <c r="I72">
+        <v>-0.04690662168999803</v>
+      </c>
+      <c r="J72">
+        <v>-0.02252907660417564</v>
+      </c>
+      <c r="K72">
+        <v>-0.1030892744144678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07863811932796672</v>
+        <v>0.1570921513725001</v>
       </c>
       <c r="C73">
-        <v>-0.1105594559030782</v>
+        <v>-0.1966517535735474</v>
       </c>
       <c r="D73">
-        <v>0.1347881261044855</v>
+        <v>-0.08373602669072155</v>
       </c>
       <c r="E73">
-        <v>0.1949899954872209</v>
+        <v>0.1286743603958007</v>
       </c>
       <c r="F73">
-        <v>-0.2578541128807822</v>
+        <v>-0.007648625086907594</v>
       </c>
       <c r="G73">
-        <v>-0.3032619431662951</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2160874216704915</v>
+      </c>
+      <c r="H73">
+        <v>-0.3545356962627545</v>
+      </c>
+      <c r="I73">
+        <v>0.2999441600821046</v>
+      </c>
+      <c r="J73">
+        <v>0.1017745698847644</v>
+      </c>
+      <c r="K73">
+        <v>0.1414052901332489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01279154472540523</v>
+        <v>0.03891032189973037</v>
       </c>
       <c r="C74">
-        <v>-0.08102667199012829</v>
+        <v>-0.09721875759732612</v>
       </c>
       <c r="D74">
-        <v>0.06760727261985332</v>
+        <v>-0.04482276746736469</v>
       </c>
       <c r="E74">
-        <v>0.0618738403636843</v>
+        <v>0.03637035193946288</v>
       </c>
       <c r="F74">
-        <v>-0.03180171162410163</v>
+        <v>-0.01947648470512655</v>
       </c>
       <c r="G74">
-        <v>0.06084969622412685</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01606676006285949</v>
+      </c>
+      <c r="H74">
+        <v>0.05298646562568705</v>
+      </c>
+      <c r="I74">
+        <v>-0.001548224386375887</v>
+      </c>
+      <c r="J74">
+        <v>-0.02894074640502664</v>
+      </c>
+      <c r="K74">
+        <v>-0.01128091636970197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03876022156367405</v>
+        <v>0.06351317415761899</v>
       </c>
       <c r="C75">
-        <v>-0.1396966464179848</v>
+        <v>-0.1637393913527861</v>
       </c>
       <c r="D75">
-        <v>0.06897134884714393</v>
+        <v>-0.08079405844562096</v>
       </c>
       <c r="E75">
-        <v>0.1376635500720854</v>
+        <v>0.0486259478289274</v>
       </c>
       <c r="F75">
-        <v>0.004397934592331036</v>
+        <v>-0.03594417332125249</v>
       </c>
       <c r="G75">
-        <v>0.195295843791213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.09133604695095268</v>
+      </c>
+      <c r="H75">
+        <v>0.2192016827514301</v>
+      </c>
+      <c r="I75">
+        <v>-0.02307112407292557</v>
+      </c>
+      <c r="J75">
+        <v>0.0228791329507368</v>
+      </c>
+      <c r="K75">
+        <v>0.1216293959109264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01461763426892632</v>
+        <v>0.04577988993918473</v>
       </c>
       <c r="C76">
-        <v>-0.1045639193193365</v>
+        <v>-0.1248932031758279</v>
       </c>
       <c r="D76">
-        <v>0.0594625566884451</v>
+        <v>-0.07358146114507147</v>
       </c>
       <c r="E76">
-        <v>0.08461794651891909</v>
+        <v>0.03669849312821481</v>
       </c>
       <c r="F76">
-        <v>-0.03792791241426717</v>
+        <v>0.009734862200787609</v>
       </c>
       <c r="G76">
-        <v>0.07472576991280036</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07536570150385109</v>
+      </c>
+      <c r="H76">
+        <v>0.08135906799610973</v>
+      </c>
+      <c r="I76">
+        <v>-0.006353634831600913</v>
+      </c>
+      <c r="J76">
+        <v>0.0365284614547418</v>
+      </c>
+      <c r="K76">
+        <v>-0.02356019037214098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09481316371193216</v>
+        <v>0.0556972703692925</v>
       </c>
       <c r="C77">
-        <v>-0.3649726974464563</v>
+        <v>-0.4018655008261701</v>
       </c>
       <c r="D77">
-        <v>-0.8381103729129677</v>
+        <v>0.8988918699961127</v>
       </c>
       <c r="E77">
-        <v>0.2875341711200594</v>
+        <v>0.00764750055460413</v>
       </c>
       <c r="F77">
-        <v>-0.1179532165833443</v>
+        <v>-0.02668143617012791</v>
       </c>
       <c r="G77">
-        <v>-0.003014839471074541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.06859863313347743</v>
+      </c>
+      <c r="H77">
+        <v>0.03335797344506018</v>
+      </c>
+      <c r="I77">
+        <v>-0.08036568470174217</v>
+      </c>
+      <c r="J77">
+        <v>0.01255715879154997</v>
+      </c>
+      <c r="K77">
+        <v>0.02196135400455092</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03267451976944267</v>
+        <v>0.03927275342153397</v>
       </c>
       <c r="C78">
-        <v>-0.1224549569191034</v>
+        <v>-0.1128990547575899</v>
       </c>
       <c r="D78">
-        <v>0.1734610661961426</v>
+        <v>-0.09388004330524895</v>
       </c>
       <c r="E78">
-        <v>-0.0877136596670308</v>
+        <v>-0.01763109820670017</v>
       </c>
       <c r="F78">
-        <v>-0.1166178085116352</v>
+        <v>0.05150713136584842</v>
       </c>
       <c r="G78">
-        <v>0.1395175132844633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01144082852770232</v>
+      </c>
+      <c r="H78">
+        <v>0.1093034098298302</v>
+      </c>
+      <c r="I78">
+        <v>-0.01983160920895908</v>
+      </c>
+      <c r="J78">
+        <v>-0.07458630574372842</v>
+      </c>
+      <c r="K78">
+        <v>-0.06950372628309739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.024043558581539</v>
+        <v>0.05779517245261014</v>
       </c>
       <c r="C79">
-        <v>-0.1591786215637424</v>
+        <v>-0.1405112385944406</v>
       </c>
       <c r="D79">
-        <v>0.1019336361744306</v>
+        <v>-0.06728681486625249</v>
       </c>
       <c r="E79">
-        <v>0.09510538901554304</v>
+        <v>0.04744571541807759</v>
       </c>
       <c r="F79">
-        <v>-0.02059335210175674</v>
+        <v>0.01782735134910614</v>
       </c>
       <c r="G79">
-        <v>0.3062444688193097</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.04555370251756728</v>
+      </c>
+      <c r="H79">
+        <v>0.2693738321274793</v>
+      </c>
+      <c r="I79">
+        <v>-0.01771909331062932</v>
+      </c>
+      <c r="J79">
+        <v>-0.04795333484200264</v>
+      </c>
+      <c r="K79">
+        <v>0.06496561778107883</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007270398870079734</v>
+        <v>0.02051486809145407</v>
       </c>
       <c r="C80">
-        <v>-0.05350319766823985</v>
+        <v>-0.04432439322468681</v>
       </c>
       <c r="D80">
-        <v>0.04471353599966582</v>
+        <v>-0.03717070779882869</v>
       </c>
       <c r="E80">
-        <v>-0.04171352763374216</v>
+        <v>-0.02088212379614512</v>
       </c>
       <c r="F80">
-        <v>-0.004309027331864529</v>
+        <v>0.05561319306531009</v>
       </c>
       <c r="G80">
-        <v>-0.009584879213210841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02376275950107724</v>
+      </c>
+      <c r="H80">
+        <v>-0.07957259886301232</v>
+      </c>
+      <c r="I80">
+        <v>0.03490102088910334</v>
+      </c>
+      <c r="J80">
+        <v>0.006669283026990541</v>
+      </c>
+      <c r="K80">
+        <v>0.02433645863183837</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.002023792518344373</v>
+        <v>0.01711689830304028</v>
       </c>
       <c r="C81">
-        <v>-0.07795461536666373</v>
+        <v>-0.09514302673217291</v>
       </c>
       <c r="D81">
-        <v>0.06778895551696812</v>
+        <v>-0.05642240900354573</v>
       </c>
       <c r="E81">
-        <v>0.07171508880295192</v>
+        <v>0.02955699733901926</v>
       </c>
       <c r="F81">
-        <v>-0.03019826870345118</v>
+        <v>0.01448200882230862</v>
       </c>
       <c r="G81">
-        <v>0.1055470524078887</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.032085955859652</v>
+      </c>
+      <c r="H81">
+        <v>0.1126592190856923</v>
+      </c>
+      <c r="I81">
+        <v>-0.03737864371530442</v>
+      </c>
+      <c r="J81">
+        <v>-0.0535571631832935</v>
+      </c>
+      <c r="K81">
+        <v>0.03881861646514752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01855966126206283</v>
+        <v>0.04715330808475335</v>
       </c>
       <c r="C82">
-        <v>-0.07823819275649793</v>
+        <v>-0.1059946118168777</v>
       </c>
       <c r="D82">
-        <v>0.06806510522370263</v>
+        <v>-0.06357935095516641</v>
       </c>
       <c r="E82">
-        <v>0.09532510319227833</v>
+        <v>0.03268180920003458</v>
       </c>
       <c r="F82">
-        <v>-0.04387162166588264</v>
+        <v>0.02083452019619366</v>
       </c>
       <c r="G82">
-        <v>0.05522651223842606</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.06901455933891566</v>
+      </c>
+      <c r="H82">
+        <v>0.08105312904021225</v>
+      </c>
+      <c r="I82">
+        <v>-0.02164949266609797</v>
+      </c>
+      <c r="J82">
+        <v>0.02097849447291219</v>
+      </c>
+      <c r="K82">
+        <v>0.01266537930058661</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.003973271553664726</v>
+        <v>-0.0002399517303102467</v>
       </c>
       <c r="C83">
-        <v>-0.02029160136378103</v>
+        <v>0.02408700120260452</v>
       </c>
       <c r="D83">
-        <v>-0.136349396229964</v>
+        <v>0.05724462478450358</v>
       </c>
       <c r="E83">
-        <v>-0.5975909087707295</v>
+        <v>0.218562428882124</v>
       </c>
       <c r="F83">
-        <v>-0.6617993185850563</v>
+        <v>0.9139891481722611</v>
       </c>
       <c r="G83">
-        <v>0.2197573831662457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.2054633792255071</v>
+      </c>
+      <c r="H83">
+        <v>0.004088966722617776</v>
+      </c>
+      <c r="I83">
+        <v>0.01862006871758281</v>
+      </c>
+      <c r="J83">
+        <v>0.1115802641590424</v>
+      </c>
+      <c r="K83">
+        <v>-0.04215225247553005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.002392526862075761</v>
+        <v>0.01354748086767081</v>
       </c>
       <c r="C84">
-        <v>-0.09458823360843008</v>
+        <v>-0.0641232007775269</v>
       </c>
       <c r="D84">
-        <v>0.03466933531436009</v>
+        <v>-0.08730172946163664</v>
       </c>
       <c r="E84">
-        <v>-0.06778498332887486</v>
+        <v>-0.3771586355456552</v>
       </c>
       <c r="F84">
-        <v>0.1588487962318083</v>
+        <v>0.05513392416715881</v>
       </c>
       <c r="G84">
-        <v>-0.01902695681736353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04546875835915555</v>
+      </c>
+      <c r="H84">
+        <v>-0.1013937319360233</v>
+      </c>
+      <c r="I84">
+        <v>-0.4710185449328977</v>
+      </c>
+      <c r="J84">
+        <v>0.7078523210640899</v>
+      </c>
+      <c r="K84">
+        <v>0.165223737648642</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0007742235939678628</v>
+        <v>0.03115793738043528</v>
       </c>
       <c r="C85">
-        <v>-0.1086562388698334</v>
+        <v>-0.1142177004375691</v>
       </c>
       <c r="D85">
-        <v>0.07180137123189424</v>
+        <v>-0.07997148789931377</v>
       </c>
       <c r="E85">
-        <v>0.08731615077952337</v>
+        <v>0.06609146125080327</v>
       </c>
       <c r="F85">
-        <v>-0.02602264120758876</v>
+        <v>0.01511698328115869</v>
       </c>
       <c r="G85">
-        <v>0.2146920375706639</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1090251552660433</v>
+      </c>
+      <c r="H85">
+        <v>0.2331391844142402</v>
+      </c>
+      <c r="I85">
+        <v>-0.01008360600673108</v>
+      </c>
+      <c r="J85">
+        <v>0.03634430743831925</v>
+      </c>
+      <c r="K85">
+        <v>0.07721918634480786</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02169361786433003</v>
+        <v>0.01512064735501877</v>
       </c>
       <c r="C86">
-        <v>-0.07570855923041993</v>
+        <v>-0.07699312161624533</v>
       </c>
       <c r="D86">
-        <v>-0.008562803375609428</v>
+        <v>-0.03094977186767792</v>
       </c>
       <c r="E86">
-        <v>-0.01070099633432404</v>
+        <v>-0.06969503866027905</v>
       </c>
       <c r="F86">
-        <v>0.002092125275943453</v>
+        <v>0.02162449875683554</v>
       </c>
       <c r="G86">
-        <v>-0.08953347808617691</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05976159854774876</v>
+      </c>
+      <c r="H86">
+        <v>0.04184846518139215</v>
+      </c>
+      <c r="I86">
+        <v>0.06346837586728278</v>
+      </c>
+      <c r="J86">
+        <v>-0.1052795515832316</v>
+      </c>
+      <c r="K86">
+        <v>0.1360533903488568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02763858941192864</v>
+        <v>0.02667158686095396</v>
       </c>
       <c r="C87">
-        <v>-0.1611922205120894</v>
+        <v>-0.1176127988742062</v>
       </c>
       <c r="D87">
-        <v>0.03346432317355182</v>
+        <v>-0.01984971738619192</v>
       </c>
       <c r="E87">
-        <v>-0.09299981503998511</v>
+        <v>0.01255884519074163</v>
       </c>
       <c r="F87">
-        <v>0.06343393333338523</v>
+        <v>-0.007006259848575508</v>
       </c>
       <c r="G87">
-        <v>-0.001042270460178619</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05841807673665456</v>
+      </c>
+      <c r="H87">
+        <v>0.01025067006246397</v>
+      </c>
+      <c r="I87">
+        <v>-0.05271716837371896</v>
+      </c>
+      <c r="J87">
+        <v>0.0009736414825667394</v>
+      </c>
+      <c r="K87">
+        <v>-0.1109570012875932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.008153976254326276</v>
+        <v>0.03929934361735216</v>
       </c>
       <c r="C88">
-        <v>-0.03175710959893564</v>
+        <v>-0.05872289154798109</v>
       </c>
       <c r="D88">
-        <v>0.03731117548347126</v>
+        <v>-0.03871833933733796</v>
       </c>
       <c r="E88">
-        <v>0.04744853900728116</v>
+        <v>0.02492617322697541</v>
       </c>
       <c r="F88">
-        <v>-0.01087114128905673</v>
+        <v>-0.01398847799783345</v>
       </c>
       <c r="G88">
-        <v>-0.009079476471921012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01389230621264169</v>
+      </c>
+      <c r="H88">
+        <v>-0.01070344474708387</v>
+      </c>
+      <c r="I88">
+        <v>0.007103980412892794</v>
+      </c>
+      <c r="J88">
+        <v>-0.01630824412160744</v>
+      </c>
+      <c r="K88">
+        <v>-0.01612015372254566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4010675186279273</v>
+        <v>0.3898992532520055</v>
       </c>
       <c r="C89">
-        <v>0.08253667939178687</v>
+        <v>0.1220196332736826</v>
       </c>
       <c r="D89">
-        <v>0.06763833688561936</v>
+        <v>0.03792974839547519</v>
       </c>
       <c r="E89">
-        <v>-0.061404630313635</v>
+        <v>-0.01731865262411636</v>
       </c>
       <c r="F89">
-        <v>0.09004093880865416</v>
+        <v>-0.0405677094349819</v>
       </c>
       <c r="G89">
-        <v>0.04748331504417985</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03538388317978017</v>
+      </c>
+      <c r="H89">
+        <v>-0.03006347577259033</v>
+      </c>
+      <c r="I89">
+        <v>-0.04450511243900509</v>
+      </c>
+      <c r="J89">
+        <v>0.0715982882931476</v>
+      </c>
+      <c r="K89">
+        <v>-0.7390404367234756</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3096409926609867</v>
+        <v>0.3162038368991998</v>
       </c>
       <c r="C90">
-        <v>0.02637987067182313</v>
+        <v>0.07935714112499939</v>
       </c>
       <c r="D90">
-        <v>0.005083775530463413</v>
+        <v>0.01887386054559263</v>
       </c>
       <c r="E90">
-        <v>-0.06380403828083987</v>
+        <v>-0.01281396671220452</v>
       </c>
       <c r="F90">
-        <v>-0.05109991618965339</v>
+        <v>0.007467097140456001</v>
       </c>
       <c r="G90">
-        <v>-0.02003868418986091</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02945686249031802</v>
+      </c>
+      <c r="H90">
+        <v>2.873567040865447e-05</v>
+      </c>
+      <c r="I90">
+        <v>-0.01269942759128009</v>
+      </c>
+      <c r="J90">
+        <v>0.007822496000505001</v>
+      </c>
+      <c r="K90">
+        <v>0.1025852504962456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02248121958992237</v>
+        <v>0.05645700232635225</v>
       </c>
       <c r="C91">
-        <v>-0.07615361031945345</v>
+        <v>-0.07821107981749564</v>
       </c>
       <c r="D91">
-        <v>0.055817250229991</v>
+        <v>-0.05284345383020331</v>
       </c>
       <c r="E91">
-        <v>0.04635085633018951</v>
+        <v>0.0549494782202098</v>
       </c>
       <c r="F91">
-        <v>-0.04147506401545897</v>
+        <v>0.0357568073861514</v>
       </c>
       <c r="G91">
-        <v>0.09293101769448826</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02701531855364957</v>
+      </c>
+      <c r="H91">
+        <v>0.08801310759103831</v>
+      </c>
+      <c r="I91">
+        <v>0.01140452545285805</v>
+      </c>
+      <c r="J91">
+        <v>0.02080524513449195</v>
+      </c>
+      <c r="K91">
+        <v>0.005745612755638643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3787490963514464</v>
+        <v>0.3495582708386781</v>
       </c>
       <c r="C92">
-        <v>0.07463904504359439</v>
+        <v>0.1261670604430588</v>
       </c>
       <c r="D92">
-        <v>-0.02360469300896091</v>
+        <v>0.05708463892394911</v>
       </c>
       <c r="E92">
-        <v>0.01383051698443082</v>
+        <v>-0.02404121533242475</v>
       </c>
       <c r="F92">
-        <v>0.1231433469196817</v>
+        <v>-0.04715311370415485</v>
       </c>
       <c r="G92">
-        <v>-0.01124261329951149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04820810176136957</v>
+      </c>
+      <c r="H92">
+        <v>0.007466332448298205</v>
+      </c>
+      <c r="I92">
+        <v>-0.04557435166272764</v>
+      </c>
+      <c r="J92">
+        <v>-0.05670114570057854</v>
+      </c>
+      <c r="K92">
+        <v>0.1332538110900865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3057331156137681</v>
+        <v>0.3068526526495758</v>
       </c>
       <c r="C93">
-        <v>0.07684126783936146</v>
+        <v>0.1228004095479336</v>
       </c>
       <c r="D93">
-        <v>0.01216092823809947</v>
+        <v>0.007272976158491642</v>
       </c>
       <c r="E93">
-        <v>-0.06877472289637797</v>
+        <v>-0.04324772404204615</v>
       </c>
       <c r="F93">
-        <v>0.04061215293312755</v>
+        <v>0.002230167122500123</v>
       </c>
       <c r="G93">
-        <v>-0.01049510804708573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03534045885108742</v>
+      </c>
+      <c r="H93">
+        <v>0.03748627835510793</v>
+      </c>
+      <c r="I93">
+        <v>-0.01420136368132267</v>
+      </c>
+      <c r="J93">
+        <v>-0.03341269173046756</v>
+      </c>
+      <c r="K93">
+        <v>0.1195384262176103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03346226597263667</v>
+        <v>0.08317570606638371</v>
       </c>
       <c r="C94">
-        <v>-0.18359844445799</v>
+        <v>-0.1636094533518157</v>
       </c>
       <c r="D94">
-        <v>0.1221752548596187</v>
+        <v>-0.1110384928586672</v>
       </c>
       <c r="E94">
-        <v>0.1287243350874861</v>
+        <v>0.07232492998571222</v>
       </c>
       <c r="F94">
-        <v>0.07910275423154316</v>
+        <v>0.03098610049374751</v>
       </c>
       <c r="G94">
-        <v>0.5957386346924792</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1105701013832873</v>
+      </c>
+      <c r="H94">
+        <v>0.5478042571394072</v>
+      </c>
+      <c r="I94">
+        <v>0.1248739728934279</v>
+      </c>
+      <c r="J94">
+        <v>0.1707526348489901</v>
+      </c>
+      <c r="K94">
+        <v>-0.07005382396956152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02335667397414852</v>
+        <v>0.04425059088071331</v>
       </c>
       <c r="C95">
-        <v>-0.1201894783713165</v>
+        <v>-0.130798567302287</v>
       </c>
       <c r="D95">
-        <v>0.05390956171663216</v>
+        <v>-0.06418211354165827</v>
       </c>
       <c r="E95">
-        <v>0.06970937243549671</v>
+        <v>0.01620113171675174</v>
       </c>
       <c r="F95">
-        <v>-0.1078308599249119</v>
+        <v>-0.02061518128079397</v>
       </c>
       <c r="G95">
-        <v>-0.01410565293143934</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08908617219782294</v>
+      </c>
+      <c r="H95">
+        <v>-0.04160288511828987</v>
+      </c>
+      <c r="I95">
+        <v>-0.08703832554099694</v>
+      </c>
+      <c r="J95">
+        <v>0.07173505451968848</v>
+      </c>
+      <c r="K95">
+        <v>-0.1764243300077923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.002442640144621061</v>
+        <v>0.02065730705357968</v>
       </c>
       <c r="C97">
-        <v>-0.001744495623623018</v>
+        <v>-0.02633551947398848</v>
       </c>
       <c r="D97">
-        <v>0.001538484662350593</v>
+        <v>0.007698041106247792</v>
       </c>
       <c r="E97">
-        <v>0.004485623309249811</v>
+        <v>-0.05061821285309874</v>
       </c>
       <c r="F97">
-        <v>0.001473791948093942</v>
+        <v>-0.005381204576955758</v>
       </c>
       <c r="G97">
-        <v>-0.006011036781924753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03275691103998954</v>
+      </c>
+      <c r="H97">
+        <v>-0.02972760304261215</v>
+      </c>
+      <c r="I97">
+        <v>0.03055951253366999</v>
+      </c>
+      <c r="J97">
+        <v>-0.04461304864169412</v>
+      </c>
+      <c r="K97">
+        <v>-0.05210940538005925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09252847690264038</v>
+        <v>0.1392128928258634</v>
       </c>
       <c r="C98">
-        <v>-0.1485495127900488</v>
+        <v>-0.1617775071570688</v>
       </c>
       <c r="D98">
-        <v>0.1481256915887237</v>
+        <v>-0.08870674194706007</v>
       </c>
       <c r="E98">
-        <v>0.1253721892594291</v>
+        <v>0.1520464343984724</v>
       </c>
       <c r="F98">
-        <v>-0.1575012994214471</v>
+        <v>0.01164131124337853</v>
       </c>
       <c r="G98">
-        <v>-0.1819591461200887</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1867164816055811</v>
+      </c>
+      <c r="H98">
+        <v>-0.282980712351892</v>
+      </c>
+      <c r="I98">
+        <v>0.2885572486957143</v>
+      </c>
+      <c r="J98">
+        <v>0.1365471586706776</v>
+      </c>
+      <c r="K98">
+        <v>0.1355014967952335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03032021266173726</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.06055745159091995</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004703118284179792</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.7584505126383028</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.2851323432004266</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.3832250783864874</v>
+      </c>
+      <c r="H99">
+        <v>0.01183306896309848</v>
+      </c>
+      <c r="I99">
+        <v>0.2778198605219517</v>
+      </c>
+      <c r="J99">
+        <v>-0.2269518430816522</v>
+      </c>
+      <c r="K99">
+        <v>-0.0905610541516569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01041291702688914</v>
+        <v>0.01716789710139443</v>
       </c>
       <c r="C101">
-        <v>-0.07858265773979556</v>
+        <v>-0.0815803955018511</v>
       </c>
       <c r="D101">
-        <v>0.04794773075620651</v>
+        <v>-0.0480096222490493</v>
       </c>
       <c r="E101">
-        <v>-0.0059791288916525</v>
+        <v>0.01877945989438642</v>
       </c>
       <c r="F101">
-        <v>-0.0515299052592041</v>
+        <v>0.04082823109901622</v>
       </c>
       <c r="G101">
-        <v>-0.09004206895674839</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.002227281944758005</v>
+      </c>
+      <c r="H101">
+        <v>-0.1504703393749508</v>
+      </c>
+      <c r="I101">
+        <v>-0.2221254944313361</v>
+      </c>
+      <c r="J101">
+        <v>-0.1442080182271896</v>
+      </c>
+      <c r="K101">
+        <v>-0.02864270064100152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004184452878308175</v>
+        <v>0.001921056046871372</v>
       </c>
       <c r="C102">
-        <v>-0.0153333170905514</v>
+        <v>-0.006231152599671053</v>
       </c>
       <c r="D102">
-        <v>-0.003692386707907445</v>
+        <v>0.002964830663628004</v>
       </c>
       <c r="E102">
-        <v>0.01781125049717794</v>
+        <v>0.003794845741830252</v>
       </c>
       <c r="F102">
-        <v>-0.01527920522954965</v>
+        <v>0.0003576494628928069</v>
       </c>
       <c r="G102">
-        <v>0.01147903823507553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002443467390185429</v>
+      </c>
+      <c r="H102">
+        <v>0.002494891849682167</v>
+      </c>
+      <c r="I102">
+        <v>-0.005081699983411388</v>
+      </c>
+      <c r="J102">
+        <v>-0.005888239420617596</v>
+      </c>
+      <c r="K102">
+        <v>-0.0159543664144217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
